--- a/data/trans_dic/P8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,1</t>
+          <t>0,0; 12,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 13,31</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 14,19</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 15,13</t>
+          <t>0,0; 12,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 19,82</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 18,49</t>
+          <t>3,46; 20,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 16,47</t>
+          <t>2,02; 17,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,07</t>
+          <t>1,9; 17,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 15,07</t>
+          <t>2,08; 19,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 13,75</t>
+          <t>2,91; 19,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 13,23</t>
+          <t>3,29; 14,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 13,37</t>
+          <t>2,25; 12,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 11,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 12,34</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 14,29</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>5,88%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,1</t>
+          <t>1,15; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,18</t>
+          <t>1,66; 8,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,99</t>
+          <t>1,7; 8,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,44</t>
+          <t>1,54; 7,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 13,17</t>
+          <t>4,46; 13,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,01</t>
+          <t>5,01; 13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,68</t>
+          <t>4,37; 12,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,39</t>
+          <t>4,44; 12,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,05</t>
+          <t>4,15; 11,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,33</t>
+          <t>7,33; 17,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,13</t>
+          <t>3,61; 8,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,72</t>
+          <t>3,76; 8,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 8,56</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 8,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 13,4</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>5,5%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,39</t>
+          <t>3,82; 19,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 17,36</t>
+          <t>4,16; 21,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 17,54</t>
+          <t>5,09; 22,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,21</t>
+          <t>6,46; 22,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,89</t>
+          <t>7,44; 21,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,22</t>
+          <t>1,06; 5,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,94</t>
+          <t>1,24; 7,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,13</t>
+          <t>2,93; 10,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,71</t>
+          <t>3,28; 11,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,19</t>
+          <t>4,84; 13,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,22</t>
+          <t>2,93; 10,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,37</t>
+          <t>3,34; 12,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 14,7</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 14,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 15,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 9,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 11,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 11,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 10,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 13,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 8,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 8,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 9,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 9,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 13,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 7,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 8,31</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 9,13</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 11,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4779</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5985</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11731</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11302</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9228</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10430</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20164</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15864</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16081</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12735</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14327</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26149</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12687</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15849</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11930</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14278</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20524</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4077; 24563</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2881; 25201</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2192; 20594</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2541; 23578</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6226; 42018</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7279; 32700</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6102; 33222</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4607; 26159</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5270; 29190</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10019; 55539</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18133</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15726</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15180</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42222</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31880</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35498</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28766</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27078</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55800</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43346</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53631</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>44492</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>42258</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>98022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4191; 25819</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7143; 36203</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6384; 32378</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6168; 31829</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23031; 69222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19556; 50918</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20283; 57862</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16929; 46833</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15585; 44971</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36239; 85123</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27349; 64508</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33600; 78859</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>27687; 64839</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25995; 62661</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>67434; 135515</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25844</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32099</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30278</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32830</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46434</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9671</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14910</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20200</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21492</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32786</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35516</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47009</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>50478</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>54322</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>79221</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10915; 55125</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13865; 71846</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14373; 64751</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17786; 62271</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26273; 76841</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3798; 21484</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5320; 30706</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10111; 37113</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10745; 36949</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19353; 54459</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18917; 67748</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25448; 94539</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30376; 92196</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34288; 88858</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>53263; 117264</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41444</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>55011</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49511</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51907</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94641</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>53282</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>61710</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58194</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>108751</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>94726</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>116721</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>107705</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>110907</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>203392</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24001; 72946</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32075; 99959</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29941; 85352</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33537; 83478</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>61193; 137915</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36913; 76205</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41760; 88602</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40773; 80776</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>40213; 81896</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>79758; 148265</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>68253; 129462</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>81955; 160051</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>77651; 146525</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>80596; 145944</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>150114; 257536</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
